--- a/base/Фигурки/Fast Anime Studio.xlsx
+++ b/base/Фигурки/Fast Anime Studio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NODE\base\Фигурки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanof\Documents\Anishop\base\Фигурки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7337D5A3-DE30-4F13-BE27-B085DDA93FAE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBDC4EA-2ABA-4964-8881-7AC37601F628}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="660">
   <si>
     <t>Cost</t>
   </si>
@@ -1859,6 +1859,150 @@
   </si>
   <si>
     <t>A Certain Scientific Railgun S: Special Figure - Misaki</t>
+  </si>
+  <si>
+    <t>Super Action Statue: The World</t>
+  </si>
+  <si>
+    <t>Nendoroid Hina Amano</t>
+  </si>
+  <si>
+    <t>Nendoroid Doll: Osamu Dazai</t>
+  </si>
+  <si>
+    <t>Nendoroid Hodaka Morishima</t>
+  </si>
+  <si>
+    <t>Nendoroid Chocola</t>
+  </si>
+  <si>
+    <t>5780 руб.</t>
+  </si>
+  <si>
+    <t>17090 руб.</t>
+  </si>
+  <si>
+    <t>32480 руб.</t>
+  </si>
+  <si>
+    <t>22220 руб.</t>
+  </si>
+  <si>
+    <t>8540 руб.</t>
+  </si>
+  <si>
+    <t>6260 руб.</t>
+  </si>
+  <si>
+    <t>7020 руб.</t>
+  </si>
+  <si>
+    <t>23650 руб.</t>
+  </si>
+  <si>
+    <t>7970 руб.</t>
+  </si>
+  <si>
+    <t>20130 руб.</t>
+  </si>
+  <si>
+    <t>12720 руб.</t>
+  </si>
+  <si>
+    <t>5880 руб.</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/Figures/12012</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/Figures/12082</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/Figures/12273</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/Figures/12737</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/Figures/5538</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/Figures/12433</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/Figures/12468</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/Figures/12475</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/Figures/12476</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/Figures/12729</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/Figures/12753</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/Figures/12780</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/thumb/shop/upload/100262398.jpg&amp;w=159&amp;h=210&amp;q=95</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/thumb/shop/upload/100264094.jpg&amp;w=159&amp;h=210&amp;q=95</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/thumb/shop/upload/100266719.jpg&amp;w=159&amp;h=210&amp;q=95</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/thumb/shop/upload/100272446.jpg&amp;w=159&amp;h=210&amp;q=95</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/thumb/shop/upload/159665.jpg&amp;w=159&amp;h=210&amp;q=95</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/thumb/shop/upload/100269071.jpg&amp;w=159&amp;h=210&amp;q=95</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/thumb/shop/upload/100269404.jpg&amp;w=159&amp;h=210&amp;q=95</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/thumb/shop/upload/100269517.jpg&amp;w=159&amp;h=210&amp;q=95</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/thumb/shop/upload/100269522.jpg&amp;w=159&amp;h=210&amp;q=95</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/thumb/shop/upload/100272151.jpg&amp;w=159&amp;h=210&amp;q=95</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/thumb/shop/upload/100272735.jpg&amp;w=159&amp;h=210&amp;q=95</t>
+  </si>
+  <si>
+    <t>https://fast-anime.ru/thumb/shop/upload/100273798.jpg&amp;w=159&amp;h=210&amp;q=95</t>
+  </si>
+  <si>
+    <t>Chimi Mega Buddy Series! Naruto Shippuden</t>
+  </si>
+  <si>
+    <t>F-ism Girl Katana Maid</t>
+  </si>
+  <si>
+    <t>Date A Live Light Novel: Kurumi Tokisaki</t>
+  </si>
+  <si>
+    <t>Hyperdimension Neptunia: Black Sister Bunny Ver. PVC</t>
+  </si>
+  <si>
+    <t>Kirara Fantasia: Hifumi Takimoto Witch Ver. PVC</t>
+  </si>
+  <si>
+    <t>ARTFX J Nezuko Kamado PVC</t>
+  </si>
+  <si>
+    <t>Movie KonoSuba: Kurenai Densetsu Megumin School Uniform ver.</t>
   </si>
 </sst>
 </file>
@@ -1874,12 +2018,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1894,8 +2050,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2235,23 +2393,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G174" sqref="G174:G181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.25" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="107.375" customWidth="1"/>
+    <col min="3" max="3" width="72.75" customWidth="1"/>
     <col min="4" max="4" width="38.125" customWidth="1"/>
     <col min="5" max="5" width="55.5" customWidth="1"/>
     <col min="7" max="7" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2265,7 +2423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>594</v>
       </c>
@@ -2287,7 +2445,7 @@
         <v>https://fast-anime.ru/Figures/11492"</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2309,7 +2467,7 @@
         <v>https://fast-anime.ru/Figures/11866"</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2331,7 +2489,7 @@
         <v>https://fast-anime.ru/Figures/11869"</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2353,7 +2511,7 @@
         <v>https://fast-anime.ru/Figures/4927"</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2375,7 +2533,7 @@
         <v>https://fast-anime.ru/Figures/11405"</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2397,7 +2555,7 @@
         <v>https://fast-anime.ru/Figures/12025"</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2419,7 +2577,7 @@
         <v>https://fast-anime.ru/Figures/12049"</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -2441,7 +2599,7 @@
         <v>https://fast-anime.ru/Figures/12054"</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -2463,7 +2621,7 @@
         <v>https://fast-anime.ru/Figures/12295"</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2485,7 +2643,7 @@
         <v>https://fast-anime.ru/Figures/12348"</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>595</v>
       </c>
@@ -2507,7 +2665,7 @@
         <v>https://fast-anime.ru/Figures/12624"</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2529,7 +2687,7 @@
         <v>https://fast-anime.ru/Figures/12639"</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2551,7 +2709,7 @@
         <v>https://fast-anime.ru/Figures/12698"</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2573,7 +2731,7 @@
         <v>https://fast-anime.ru/Figures/12739"</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>596</v>
       </c>
@@ -2595,7 +2753,7 @@
         <v>https://fast-anime.ru/Figures/12993"</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -2617,7 +2775,7 @@
         <v>https://fast-anime.ru/Figures/12901"</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -2639,7 +2797,7 @@
         <v>https://fast-anime.ru/Figures/12905"</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -2661,7 +2819,7 @@
         <v>https://fast-anime.ru/Figures/12907"</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -2683,7 +2841,7 @@
         <v>https://fast-anime.ru/Figures/12910"</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -2705,7 +2863,7 @@
         <v>https://fast-anime.ru/Figures/12911"</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2727,7 +2885,7 @@
         <v>https://fast-anime.ru/Figures/12980"</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -2749,7 +2907,7 @@
         <v>https://fast-anime.ru/Figures/12987"</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -2771,7 +2929,7 @@
         <v>https://fast-anime.ru/Figures/13455"</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -2793,7 +2951,7 @@
         <v>https://fast-anime.ru/Figures/13456"</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -2815,7 +2973,7 @@
         <v>https://fast-anime.ru/Figures/13457"</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -2837,7 +2995,7 @@
         <v>https://fast-anime.ru/Figures/13458"</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -2859,7 +3017,7 @@
         <v>https://fast-anime.ru/Figures/12473"</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -2881,7 +3039,7 @@
         <v>https://fast-anime.ru/Figures/12269"</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>105</v>
       </c>
@@ -2903,7 +3061,7 @@
         <v>https://fast-anime.ru/Figures/12451"</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -2925,7 +3083,7 @@
         <v>https://fast-anime.ru/Figures/12452"</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -2947,7 +3105,7 @@
         <v>https://fast-anime.ru/Figures/12841"</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -2969,7 +3127,7 @@
         <v>https://fast-anime.ru/Figures/12875"</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>120</v>
       </c>
@@ -2991,7 +3149,7 @@
         <v>https://fast-anime.ru/Figures/12876"</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>123</v>
       </c>
@@ -3013,7 +3171,7 @@
         <v>https://fast-anime.ru/Figures/12882"</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>126</v>
       </c>
@@ -3035,7 +3193,7 @@
         <v>https://fast-anime.ru/Figures/12883"</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>129</v>
       </c>
@@ -3057,7 +3215,7 @@
         <v>https://fast-anime.ru/Figures/12897"</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>132</v>
       </c>
@@ -3079,7 +3237,7 @@
         <v>https://fast-anime.ru/Figures/12926"</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>135</v>
       </c>
@@ -3101,7 +3259,7 @@
         <v>https://fast-anime.ru/Figures/12942"</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -3123,7 +3281,7 @@
         <v>https://fast-anime.ru/Figures/12955"</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>143</v>
       </c>
@@ -3145,7 +3303,7 @@
         <v>https://fast-anime.ru/Figures/13425"</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>146</v>
       </c>
@@ -3167,7 +3325,7 @@
         <v>https://fast-anime.ru/Figures/13426"</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>149</v>
       </c>
@@ -3189,7 +3347,7 @@
         <v>https://fast-anime.ru/Figures/13428"</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>152</v>
       </c>
@@ -3211,7 +3369,7 @@
         <v>https://fast-anime.ru/Figures/12032"</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>155</v>
       </c>
@@ -3233,7 +3391,7 @@
         <v>https://fast-anime.ru/Figures/7231"</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>159</v>
       </c>
@@ -3255,7 +3413,7 @@
         <v>https://fast-anime.ru/Figures/8660"</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>163</v>
       </c>
@@ -3277,7 +3435,7 @@
         <v>https://fast-anime.ru/Figures/12362"</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>167</v>
       </c>
@@ -3299,7 +3457,7 @@
         <v>https://fast-anime.ru/Figures/11685"</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -3321,7 +3479,7 @@
         <v>https://fast-anime.ru/Figures/12144"</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>175</v>
       </c>
@@ -3343,7 +3501,7 @@
         <v>https://fast-anime.ru/Figures/9754"</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>179</v>
       </c>
@@ -3365,7 +3523,7 @@
         <v>https://fast-anime.ru/Figures/7936"</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>183</v>
       </c>
@@ -3387,7 +3545,7 @@
         <v>https://fast-anime.ru/Figures/12261"</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>187</v>
       </c>
@@ -3409,7 +3567,7 @@
         <v>https://fast-anime.ru/Figures/12685"</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>610</v>
       </c>
@@ -3431,7 +3589,7 @@
         <v>https://fast-anime.ru/Figures/13013"</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>611</v>
       </c>
@@ -3453,7 +3611,7 @@
         <v>https://fast-anime.ru/Figures/13020"</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>197</v>
       </c>
@@ -3475,7 +3633,7 @@
         <v>https://fast-anime.ru/Figures/11196"</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>597</v>
       </c>
@@ -3497,7 +3655,7 @@
         <v>https://fast-anime.ru/Figures/11504"</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>204</v>
       </c>
@@ -3519,7 +3677,7 @@
         <v>https://fast-anime.ru/Figures/12195"</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>208</v>
       </c>
@@ -3541,7 +3699,7 @@
         <v>https://fast-anime.ru/Figures/12431"</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>212</v>
       </c>
@@ -3563,7 +3721,7 @@
         <v>https://fast-anime.ru/Figures/12555"</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>215</v>
       </c>
@@ -3585,7 +3743,7 @@
         <v>https://fast-anime.ru/Figures/12349"</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>219</v>
       </c>
@@ -3607,7 +3765,7 @@
         <v>https://fast-anime.ru/Figures/11441"</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>222</v>
       </c>
@@ -3629,7 +3787,7 @@
         <v>https://fast-anime.ru/Figures/12715"</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>226</v>
       </c>
@@ -3651,7 +3809,7 @@
         <v>https://fast-anime.ru/Figures/12789"</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>598</v>
       </c>
@@ -3673,7 +3831,7 @@
         <v>https://fast-anime.ru/Figures/11989"</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>233</v>
       </c>
@@ -3695,7 +3853,7 @@
         <v>https://fast-anime.ru/Figures/11028"</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>237</v>
       </c>
@@ -3717,7 +3875,7 @@
         <v>https://fast-anime.ru/Figures/11540"</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>241</v>
       </c>
@@ -3739,7 +3897,7 @@
         <v>https://fast-anime.ru/Figures/844"</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>245</v>
       </c>
@@ -3761,7 +3919,7 @@
         <v>https://fast-anime.ru/Figures/11890"</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>249</v>
       </c>
@@ -3783,7 +3941,7 @@
         <v>https://fast-anime.ru/Figures/1921"</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>253</v>
       </c>
@@ -3805,7 +3963,7 @@
         <v>https://fast-anime.ru/Figures/3147"</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>257</v>
       </c>
@@ -3827,7 +3985,7 @@
         <v>https://fast-anime.ru/Figures/3404"</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>261</v>
       </c>
@@ -3849,7 +4007,7 @@
         <v>https://fast-anime.ru/Figures/3910"</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>265</v>
       </c>
@@ -3871,7 +4029,7 @@
         <v>https://fast-anime.ru/Figures/3911"</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>269</v>
       </c>
@@ -3893,7 +4051,7 @@
         <v>https://fast-anime.ru/Figures/4285"</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>273</v>
       </c>
@@ -3915,7 +4073,7 @@
         <v>https://fast-anime.ru/Figures/4346"</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>277</v>
       </c>
@@ -3937,7 +4095,7 @@
         <v>https://fast-anime.ru/Figures/4378"</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>281</v>
       </c>
@@ -3959,7 +4117,7 @@
         <v>https://fast-anime.ru/Figures/5781"</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>285</v>
       </c>
@@ -3981,7 +4139,7 @@
         <v>https://fast-anime.ru/Figures/5782"</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>289</v>
       </c>
@@ -4003,7 +4161,7 @@
         <v>https://fast-anime.ru/Figures/5792"</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>609</v>
       </c>
@@ -4025,7 +4183,7 @@
         <v>https://fast-anime.ru/Figures/11940"</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>296</v>
       </c>
@@ -4047,7 +4205,7 @@
         <v>https://fast-anime.ru/Figures/6545"</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>300</v>
       </c>
@@ -4069,7 +4227,7 @@
         <v>https://fast-anime.ru/Figures/6622"</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>608</v>
       </c>
@@ -4091,7 +4249,7 @@
         <v>https://fast-anime.ru/Figures/6707"</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>307</v>
       </c>
@@ -4113,7 +4271,7 @@
         <v>https://fast-anime.ru/Figures/7068"</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>311</v>
       </c>
@@ -4135,7 +4293,7 @@
         <v>https://fast-anime.ru/Figures/7469"</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>315</v>
       </c>
@@ -4157,7 +4315,7 @@
         <v>https://fast-anime.ru/Figures/7516"</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>319</v>
       </c>
@@ -4179,7 +4337,7 @@
         <v>https://fast-anime.ru/Figures/7602"</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>323</v>
       </c>
@@ -4201,7 +4359,7 @@
         <v>https://fast-anime.ru/Figures/7605"</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>327</v>
       </c>
@@ -4223,7 +4381,7 @@
         <v>https://fast-anime.ru/Figures/7672"</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>331</v>
       </c>
@@ -4245,7 +4403,7 @@
         <v>https://fast-anime.ru/Figures/7698"</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>335</v>
       </c>
@@ -4267,7 +4425,7 @@
         <v>https://fast-anime.ru/Figures/7827"</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>339</v>
       </c>
@@ -4289,7 +4447,7 @@
         <v>https://fast-anime.ru/Figures/7897"</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>342</v>
       </c>
@@ -4311,7 +4469,7 @@
         <v>https://fast-anime.ru/Figures/8010"</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>346</v>
       </c>
@@ -4333,7 +4491,7 @@
         <v>https://fast-anime.ru/Figures/8030"</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>350</v>
       </c>
@@ -4355,7 +4513,7 @@
         <v>https://fast-anime.ru/Figures/8284"</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>353</v>
       </c>
@@ -4377,7 +4535,7 @@
         <v>https://fast-anime.ru/Figures/8408"</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>357</v>
       </c>
@@ -4399,7 +4557,7 @@
         <v>https://fast-anime.ru/Figures/8423"</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>361</v>
       </c>
@@ -4421,7 +4579,7 @@
         <v>https://fast-anime.ru/Figures/8446"</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>365</v>
       </c>
@@ -4443,7 +4601,7 @@
         <v>https://fast-anime.ru/Figures/8518"</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>369</v>
       </c>
@@ -4465,7 +4623,7 @@
         <v>https://fast-anime.ru/Figures/8638"</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>372</v>
       </c>
@@ -4487,7 +4645,7 @@
         <v>https://fast-anime.ru/Figures/9055"</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>376</v>
       </c>
@@ -4509,7 +4667,7 @@
         <v>https://fast-anime.ru/Figures/9155"</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>379</v>
       </c>
@@ -4531,7 +4689,7 @@
         <v>https://fast-anime.ru/Figures/9165"</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>383</v>
       </c>
@@ -4553,7 +4711,7 @@
         <v>https://fast-anime.ru/Figures/9173"</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>387</v>
       </c>
@@ -4575,7 +4733,7 @@
         <v>https://fast-anime.ru/Figures/9215"</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>390</v>
       </c>
@@ -4597,7 +4755,7 @@
         <v>https://fast-anime.ru/Figures/9548"</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>607</v>
       </c>
@@ -4619,7 +4777,7 @@
         <v>https://fast-anime.ru/Figures/9573"</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>395</v>
       </c>
@@ -4641,7 +4799,7 @@
         <v>https://fast-anime.ru/Figures/9719"</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>398</v>
       </c>
@@ -4663,7 +4821,7 @@
         <v>https://fast-anime.ru/Figures/9852"</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>402</v>
       </c>
@@ -4685,7 +4843,7 @@
         <v>https://fast-anime.ru/Figures/9872"</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>406</v>
       </c>
@@ -4707,7 +4865,7 @@
         <v>https://fast-anime.ru/Figures/9878"</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>409</v>
       </c>
@@ -4729,7 +4887,7 @@
         <v>https://fast-anime.ru/Figures/9883"</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>413</v>
       </c>
@@ -4751,7 +4909,7 @@
         <v>https://fast-anime.ru/Figures/9998"</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>606</v>
       </c>
@@ -4773,7 +4931,7 @@
         <v>https://fast-anime.ru/Figures/10015"</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>419</v>
       </c>
@@ -4795,7 +4953,7 @@
         <v>https://fast-anime.ru/Figures/10138"</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>605</v>
       </c>
@@ -4817,7 +4975,7 @@
         <v>https://fast-anime.ru/Figures/10279"</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>426</v>
       </c>
@@ -4839,7 +4997,7 @@
         <v>https://fast-anime.ru/Figures/10293"</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>429</v>
       </c>
@@ -4861,7 +5019,7 @@
         <v>https://fast-anime.ru/Figures/10337"</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>433</v>
       </c>
@@ -4883,7 +5041,7 @@
         <v>https://fast-anime.ru/Figures/10377"</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>436</v>
       </c>
@@ -4905,7 +5063,7 @@
         <v>https://fast-anime.ru/Figures/10406"</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>440</v>
       </c>
@@ -4927,7 +5085,7 @@
         <v>https://fast-anime.ru/Figures/10471"</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>444</v>
       </c>
@@ -4949,7 +5107,7 @@
         <v>https://fast-anime.ru/Figures/10636"</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>448</v>
       </c>
@@ -4971,7 +5129,7 @@
         <v>https://fast-anime.ru/Figures/10840"</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>451</v>
       </c>
@@ -4993,7 +5151,7 @@
         <v>https://fast-anime.ru/Figures/11015"</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>455</v>
       </c>
@@ -5015,7 +5173,7 @@
         <v>https://fast-anime.ru/Figures/11045"</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>459</v>
       </c>
@@ -5037,7 +5195,7 @@
         <v>https://fast-anime.ru/Figures/11047"</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>462</v>
       </c>
@@ -5051,7 +5209,7 @@
         <v>464</v>
       </c>
       <c r="E128" t="str">
-        <f t="shared" ref="E128:E168" si="4">A128&amp;""""</f>
+        <f t="shared" ref="E128:E181" si="4">A128&amp;""""</f>
         <v>Ranma 1/2 (Original Ver.) Finger Mascot Puppela: Genma Saoto..."</v>
       </c>
       <c r="G128" t="str">
@@ -5059,7 +5217,7 @@
         <v>https://fast-anime.ru/Figures/11048"</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>604</v>
       </c>
@@ -5081,7 +5239,7 @@
         <v>https://fast-anime.ru/Figures/11136"</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>468</v>
       </c>
@@ -5103,7 +5261,7 @@
         <v>https://fast-anime.ru/Figures/11247"</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>472</v>
       </c>
@@ -5121,11 +5279,11 @@
         <v>S.H. Figuarts Touhoufuhai (Master Asia)"</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" ref="G131:G168" si="5">D131&amp;""""</f>
+        <f t="shared" ref="G131:G181" si="5">D131&amp;""""</f>
         <v>https://fast-anime.ru/Figures/11249"</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>603</v>
       </c>
@@ -5147,7 +5305,7 @@
         <v>https://fast-anime.ru/Figures/11270"</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>479</v>
       </c>
@@ -5169,7 +5327,7 @@
         <v>https://fast-anime.ru/Figures/11350"</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>482</v>
       </c>
@@ -5191,7 +5349,7 @@
         <v>https://fast-anime.ru/Figures/11365"</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>486</v>
       </c>
@@ -5213,7 +5371,7 @@
         <v>https://fast-anime.ru/Figures/11448"</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>490</v>
       </c>
@@ -5235,7 +5393,7 @@
         <v>https://fast-anime.ru/Figures/11466"</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>493</v>
       </c>
@@ -5257,7 +5415,7 @@
         <v>https://fast-anime.ru/Figures/11472"</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>602</v>
       </c>
@@ -5279,7 +5437,7 @@
         <v>https://fast-anime.ru/Figures/11491"</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>498</v>
       </c>
@@ -5301,7 +5459,7 @@
         <v>https://fast-anime.ru/Figures/11499"</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>502</v>
       </c>
@@ -5323,7 +5481,7 @@
         <v>https://fast-anime.ru/Figures/11534"</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>506</v>
       </c>
@@ -5345,7 +5503,7 @@
         <v>https://fast-anime.ru/Figures/11564"</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>509</v>
       </c>
@@ -5367,7 +5525,7 @@
         <v>https://fast-anime.ru/Figures/11592"</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>601</v>
       </c>
@@ -5389,7 +5547,7 @@
         <v>https://fast-anime.ru/Figures/11596"</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>516</v>
       </c>
@@ -5411,7 +5569,7 @@
         <v>https://fast-anime.ru/Figures/11601"</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>599</v>
       </c>
@@ -5433,7 +5591,7 @@
         <v>https://fast-anime.ru/Figures/11674"</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>521</v>
       </c>
@@ -5455,7 +5613,7 @@
         <v>https://fast-anime.ru/Figures/11742"</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>525</v>
       </c>
@@ -5477,7 +5635,7 @@
         <v>https://fast-anime.ru/Figures/11997"</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>529</v>
       </c>
@@ -5499,7 +5657,7 @@
         <v>https://fast-anime.ru/Figures/12024"</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>532</v>
       </c>
@@ -5521,7 +5679,7 @@
         <v>https://fast-anime.ru/Figures/12100"</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>536</v>
       </c>
@@ -5543,7 +5701,7 @@
         <v>https://fast-anime.ru/Figures/12135"</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>539</v>
       </c>
@@ -5565,7 +5723,7 @@
         <v>https://fast-anime.ru/Figures/12138"</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>543</v>
       </c>
@@ -5587,7 +5745,7 @@
         <v>https://fast-anime.ru/Figures/12140"</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>546</v>
       </c>
@@ -5609,7 +5767,7 @@
         <v>https://fast-anime.ru/Figures/12142"</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>549</v>
       </c>
@@ -5631,7 +5789,7 @@
         <v>https://fast-anime.ru/Figures/12330"</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>552</v>
       </c>
@@ -5653,7 +5811,7 @@
         <v>https://fast-anime.ru/Figures/12369"</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>555</v>
       </c>
@@ -5675,7 +5833,7 @@
         <v>https://fast-anime.ru/Figures/12370"</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>600</v>
       </c>
@@ -5697,7 +5855,7 @@
         <v>https://fast-anime.ru/Figures/12776"</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>561</v>
       </c>
@@ -5719,7 +5877,7 @@
         <v>https://fast-anime.ru/Figures/12785"</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>564</v>
       </c>
@@ -5741,7 +5899,7 @@
         <v>https://fast-anime.ru/Figures/12786"</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>567</v>
       </c>
@@ -5763,7 +5921,7 @@
         <v>https://fast-anime.ru/Figures/12787"</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>570</v>
       </c>
@@ -5785,7 +5943,7 @@
         <v>https://fast-anime.ru/Figures/12788"</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>573</v>
       </c>
@@ -5807,7 +5965,7 @@
         <v>https://fast-anime.ru/Figures/12797"</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>576</v>
       </c>
@@ -5829,7 +5987,7 @@
         <v>https://fast-anime.ru/Figures/12802"</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>579</v>
       </c>
@@ -5851,7 +6009,7 @@
         <v>https://fast-anime.ru/Figures/12803"</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>582</v>
       </c>
@@ -5873,7 +6031,7 @@
         <v>https://fast-anime.ru/Figures/12804"</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>585</v>
       </c>
@@ -5895,7 +6053,7 @@
         <v>https://fast-anime.ru/Figures/10844"</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>588</v>
       </c>
@@ -5917,37 +6075,316 @@
         <v>https://fast-anime.ru/Figures/8122"</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="E168" t="str">
+      <c r="E168" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Sailor Uranus GK"</v>
       </c>
-      <c r="G168" t="str">
+      <c r="F168" s="1"/>
+      <c r="G168" s="1" t="str">
         <f t="shared" si="5"/>
         <v>https://fast-anime.ru/Figures/4485"</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="1:7" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="1:7" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="1:7" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="1:7" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:7" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="1:7" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:7" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>653</v>
+      </c>
+      <c r="B169" t="s">
+        <v>617</v>
+      </c>
+      <c r="C169" t="s">
+        <v>641</v>
+      </c>
+      <c r="D169" t="s">
+        <v>629</v>
+      </c>
+      <c r="E169" t="str">
+        <f t="shared" si="4"/>
+        <v>Chimi Mega Buddy Series! Naruto Shippuden"</v>
+      </c>
+      <c r="G169" t="str">
+        <f t="shared" si="5"/>
+        <v>https://fast-anime.ru/Figures/12012"</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>657</v>
+      </c>
+      <c r="B170" t="s">
+        <v>618</v>
+      </c>
+      <c r="C170" t="s">
+        <v>642</v>
+      </c>
+      <c r="D170" t="s">
+        <v>630</v>
+      </c>
+      <c r="E170" t="str">
+        <f t="shared" si="4"/>
+        <v>Kirara Fantasia: Hifumi Takimoto Witch Ver. PVC"</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" si="5"/>
+        <v>https://fast-anime.ru/Figures/12082"</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>656</v>
+      </c>
+      <c r="B171" t="s">
+        <v>619</v>
+      </c>
+      <c r="C171" t="s">
+        <v>643</v>
+      </c>
+      <c r="D171" t="s">
+        <v>631</v>
+      </c>
+      <c r="E171" t="str">
+        <f t="shared" si="4"/>
+        <v>Hyperdimension Neptunia: Black Sister Bunny Ver. PVC"</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" si="5"/>
+        <v>https://fast-anime.ru/Figures/12273"</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>655</v>
+      </c>
+      <c r="B172" t="s">
+        <v>620</v>
+      </c>
+      <c r="C172" t="s">
+        <v>644</v>
+      </c>
+      <c r="D172" t="s">
+        <v>632</v>
+      </c>
+      <c r="E172" t="str">
+        <f t="shared" si="4"/>
+        <v>Date A Live Light Novel: Kurumi Tokisaki"</v>
+      </c>
+      <c r="G172" t="str">
+        <f t="shared" si="5"/>
+        <v>https://fast-anime.ru/Figures/12737"</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E173" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Super Action Statue: The World"</v>
+      </c>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>https://fast-anime.ru/Figures/5538"</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>613</v>
+      </c>
+      <c r="B174" t="s">
+        <v>622</v>
+      </c>
+      <c r="C174" t="s">
+        <v>646</v>
+      </c>
+      <c r="D174" t="s">
+        <v>634</v>
+      </c>
+      <c r="E174" t="str">
+        <f t="shared" si="4"/>
+        <v>Nendoroid Hina Amano"</v>
+      </c>
+      <c r="G174" t="str">
+        <f t="shared" si="5"/>
+        <v>https://fast-anime.ru/Figures/12433"</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>105</v>
+      </c>
+      <c r="B175" t="s">
+        <v>623</v>
+      </c>
+      <c r="C175" t="s">
+        <v>107</v>
+      </c>
+      <c r="D175" t="s">
+        <v>108</v>
+      </c>
+      <c r="E175" t="str">
+        <f t="shared" si="4"/>
+        <v>Nendoroid Nezuko Kamado"</v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="5"/>
+        <v>https://fast-anime.ru/Figures/12451"</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>654</v>
+      </c>
+      <c r="B176" t="s">
+        <v>624</v>
+      </c>
+      <c r="C176" t="s">
+        <v>647</v>
+      </c>
+      <c r="D176" t="s">
+        <v>635</v>
+      </c>
+      <c r="E176" t="str">
+        <f t="shared" si="4"/>
+        <v>F-ism Girl Katana Maid"</v>
+      </c>
+      <c r="G176" t="str">
+        <f t="shared" si="5"/>
+        <v>https://fast-anime.ru/Figures/12468"</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>614</v>
+      </c>
+      <c r="B177" t="s">
+        <v>625</v>
+      </c>
+      <c r="C177" t="s">
+        <v>648</v>
+      </c>
+      <c r="D177" t="s">
+        <v>636</v>
+      </c>
+      <c r="E177" t="str">
+        <f t="shared" si="4"/>
+        <v>Nendoroid Doll: Osamu Dazai"</v>
+      </c>
+      <c r="G177" t="str">
+        <f t="shared" si="5"/>
+        <v>https://fast-anime.ru/Figures/12475"</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>659</v>
+      </c>
+      <c r="B178" t="s">
+        <v>626</v>
+      </c>
+      <c r="C178" t="s">
+        <v>649</v>
+      </c>
+      <c r="D178" t="s">
+        <v>637</v>
+      </c>
+      <c r="E178" t="str">
+        <f t="shared" si="4"/>
+        <v>Movie KonoSuba: Kurenai Densetsu Megumin School Uniform ver."</v>
+      </c>
+      <c r="G178" t="str">
+        <f t="shared" si="5"/>
+        <v>https://fast-anime.ru/Figures/12476"</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>658</v>
+      </c>
+      <c r="B179" t="s">
+        <v>627</v>
+      </c>
+      <c r="C179" t="s">
+        <v>650</v>
+      </c>
+      <c r="D179" t="s">
+        <v>638</v>
+      </c>
+      <c r="E179" t="str">
+        <f t="shared" si="4"/>
+        <v>ARTFX J Nezuko Kamado PVC"</v>
+      </c>
+      <c r="G179" t="str">
+        <f t="shared" si="5"/>
+        <v>https://fast-anime.ru/Figures/12729"</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>615</v>
+      </c>
+      <c r="B180" t="s">
+        <v>628</v>
+      </c>
+      <c r="C180" t="s">
+        <v>651</v>
+      </c>
+      <c r="D180" t="s">
+        <v>639</v>
+      </c>
+      <c r="E180" t="str">
+        <f t="shared" si="4"/>
+        <v>Nendoroid Hodaka Morishima"</v>
+      </c>
+      <c r="G180" t="str">
+        <f t="shared" si="5"/>
+        <v>https://fast-anime.ru/Figures/12753"</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>616</v>
+      </c>
+      <c r="B181" t="s">
+        <v>628</v>
+      </c>
+      <c r="C181" t="s">
+        <v>652</v>
+      </c>
+      <c r="D181" t="s">
+        <v>640</v>
+      </c>
+      <c r="E181" t="str">
+        <f t="shared" si="4"/>
+        <v>Nendoroid Chocola"</v>
+      </c>
+      <c r="G181" t="str">
+        <f t="shared" si="5"/>
+        <v>https://fast-anime.ru/Figures/12780"</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D168" xr:uid="{7E0E0027-29CA-4273-BD38-46BD884533D9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
